--- a/files/Orçamentento.xlsx
+++ b/files/Orçamentento.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaom\Documents\formacaotic.pt\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EC9D63F-0353-4185-8C49-879C036D963B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F4580F-3A39-4353-A957-B05B3B157410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{7F940F06-BDA4-43C3-BC4B-FCBB5B5F82F3}"/>
   </bookViews>
@@ -96,7 +96,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,45 +114,35 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="20"/>
-      <color theme="1"/>
+      <sz val="12"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -171,6 +161,126 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -180,22 +290,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -513,128 +632,123 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4565F9DB-7290-465C-828E-F0D089A0D64E}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.54296875" customWidth="1"/>
     <col min="4" max="4" width="7.453125" customWidth="1"/>
     <col min="5" max="5" width="44.54296875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="15"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="13">
         <v>450</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="2" t="s">
+      <c r="D4" s="10"/>
+      <c r="E4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="13">
         <v>40</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="2" t="s">
+      <c r="D5" s="10"/>
+      <c r="E5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="13">
         <v>125</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="2" t="s">
+      <c r="D6" s="10"/>
+      <c r="E6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="2"/>
+      <c r="F6" s="13"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="13">
         <v>75</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="2" t="s">
+      <c r="D7" s="10"/>
+      <c r="E7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="F7" s="13"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="13">
         <v>500</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="2" t="s">
+      <c r="D8" s="10"/>
+      <c r="E8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="F8" s="13"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="14">
         <v>300</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="2" t="s">
+      <c r="D9" s="11"/>
+      <c r="E9" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="2"/>
+      <c r="F9" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="2">
